--- a/xlsx/dumped_3.xlsx
+++ b/xlsx/dumped_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,12 +716,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Problematic Code Clones Identification Using Multiple Detection Results</t>
+          <t>Evolution of Type-1 Clones</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y. Higo; K. -i. Sawa; S. Kusumoto</t>
+          <t>N. G√∂de</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,34 +731,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.1109/APSEC.2009.30</t>
+          <t>10.1109/SCAM.2009.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>978-0-7695-3909-6</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1530-1362</t>
-        </is>
-      </c>
+          <t>978-0-7695-3793-1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5358749</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5279977</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SHINOBI: A Tool for Automatic Code Clone Detection in the IDE</t>
+          <t>Problematic Code Clones Identification Using Multiple Detection Results</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S. Kawaguchi; T. Yamashina; H. Uwano; K. Fushida; Y. Kamei; M. Nagura; H. Iida</t>
+          <t>Y. Higo; K. -i. Sawa; S. Kusumoto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -768,34 +764,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.1109/WCRE.2009.36</t>
+          <t>10.1109/APSEC.2009.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>978-0-7695-3867-9</t>
+          <t>978-0-7695-3909-6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2375-5369</t>
+          <t>1530-1362</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5328752</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5358749</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The curse of copy&amp;paste ‚Äî Cloning in requirements specifications</t>
+          <t>SHINOBI: A Tool for Automatic Code Clone Detection in the IDE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C. Domann; E. Juergens; J. Streit</t>
+          <t>S. Kawaguchi; T. Yamashina; H. Uwano; K. Fushida; Y. Kamei; M. Nagura; H. Iida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -805,67 +801,71 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.1109/ESEM.2009.5315992</t>
+          <t>10.1109/WCRE.2009.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>978-1-4244-4842-5</t>
+          <t>978-0-7695-3867-9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1949-3789</t>
+          <t>2375-5369</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5315992</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5328752</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Can clone detection support quality assessments of requirements specifications?</t>
+          <t>The curse of copy&amp;paste ‚Äî Cloning in requirements specifications</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Juergens, Elmar; Deissenboeck, Florian; Feilkas, Martin; Hummel, Benjamin; Schaetz, Bernhard; Wagner, Stefan; Domann, Christoph; Streit, Jonathan</t>
+          <t>C. Domann; E. Juergens; J. Streit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.1145/1810295.1810308</t>
+          <t>10.1109/ESEM.2009.5315992</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>978-1-60558-719-6</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>978-1-4244-4842-5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1949-3789</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/1810295.1810308</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5315992</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Matching dependence-related queries in the system dependence graph</t>
+          <t>Can clone detection support quality assessments of requirements specifications?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wang, Xiaoyin; Lo, David; Cheng, Jiefeng; Zhang, Lu; Mei, Hong; Yu, Jeffrey Xu</t>
+          <t>Juergens, Elmar; Deissenboeck, Florian; Feilkas, Martin; Hummel, Benjamin; Schaetz, Bernhard; Wagner, Stefan; Domann, Christoph; Streit, Jonathan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -875,30 +875,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.1145/1858996.1859091</t>
+          <t>10.1145/1810295.1810308</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>978-1-4503-0116-9</t>
+          <t>978-1-60558-719-6</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/1858996.1859091</t>
+          <t>https://doi.org/10.1145/1810295.1810308</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Measuring the efficacy of code clone information: An empirical study</t>
+          <t>Matching dependence-related queries in the system dependence graph</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chatterji, Debarshi; Massengill, Beverly; Oslin, Jason; Carver, Jeffrey C.; Kraft, Nicholas A.</t>
+          <t>Wang, Xiaoyin; Lo, David; Cheng, Jiefeng; Zhang, Lu; Mei, Hong; Yu, Jeffrey Xu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -908,30 +908,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.1145/1937117.1937121</t>
+          <t>10.1145/1858996.1859091</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>978-1-4503-0547-1</t>
+          <t>978-1-4503-0116-9</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/1937117.1937121</t>
+          <t>https://doi.org/10.1145/1858996.1859091</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Modeling clones evolution in open source systems through chaos theory</t>
+          <t>Measuring the efficacy of code clone information: An empirical study</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D. M. Shawky; A. F. Ali</t>
+          <t>Chatterji, Debarshi; Massengill, Beverly; Oslin, Jason; Carver, Jeffrey C.; Kraft, Nicholas A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -941,67 +941,63 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.1109/ICSTE.2010.5608893</t>
+          <t>10.1145/1937117.1937121</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>978-1-4244-8666-3</t>
+          <t>978-1-4503-0547-1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5608893</t>
+          <t>https://doi.org/10.1145/1937117.1937121</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>An Empirical Study of the Impacts of Clones in Software Maintenance</t>
+          <t>Modeling clones evolution in open source systems through chaos theory</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M. Mondal; M. S. Rahman; R. K. Saha; C. K. Roy; J. Krinke; K. A. Schneider</t>
+          <t>D. M. Shawky; A. F. Ali</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2011.14</t>
+          <t>10.1109/ICSTE.2010.5608893</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>978-0-7695-4398-7</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1092-8138</t>
-        </is>
-      </c>
+          <t>978-1-4244-8666-3</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5970172</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5608893</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>An automatic framework for extracting and classifying near-miss clone genealogies</t>
+          <t>An Empirical Study of the Impacts of Clones in Software Maintenance</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R. K. Saha; C. K. Roy; K. A. Schneider</t>
+          <t>M. Mondal; M. S. Rahman; R. K. Saha; C. K. Roy; J. Krinke; K. A. Schneider</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1011,34 +1007,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.1109/ICSM.2011.6080796</t>
+          <t>10.1109/ICPC.2011.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>978-1-4577-0664-6</t>
+          <t>978-0-7695-4398-7</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1063-6773</t>
+          <t>1092-8138</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6080796</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5970172</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Clone Stability</t>
+          <t>An automatic framework for extracting and classifying near-miss clone genealogies</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N. G√∂de; J. Harder</t>
+          <t>R. K. Saha; C. K. Roy; K. A. Schneider</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1048,34 +1044,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.1109/CSMR.2011.11</t>
+          <t>10.1109/ICSM.2011.6080796</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>978-1-61284-259-2</t>
+          <t>978-1-4577-0664-6</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1534-5351</t>
+          <t>1063-6773</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5741247</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6080796</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Finding software license violations through binary code clone detection</t>
+          <t>Clone Stability</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hemel, Armijn; Kalleberg, Karl Trygve; Vermaas, Rob; Dolstra, Eelco</t>
+          <t>N. G√∂de; J. Harder</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1085,30 +1081,34 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.1145/1985441.1985453</t>
+          <t>10.1109/CSMR.2011.11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>978-1-4503-0574-7</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>978-1-61284-259-2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/1985441.1985453</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5741247</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Measuring the Efficacy of Code Clone Information in a Bug Localization Task: An Empirical Study</t>
+          <t>Finding software license violations through binary code clone detection</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D. Chatterji; J. C. Carver; B. Massengil; J. Oslin; N. A. Kraft</t>
+          <t>Hemel, Armijn; Kalleberg, Karl Trygve; Vermaas, Rob; Dolstra, Eelco</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1118,34 +1118,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.1109/ESEM.2011.10</t>
+          <t>10.1145/1985441.1985453</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>978-1-4577-2203-5</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1949-3789</t>
-        </is>
-      </c>
+          <t>978-1-4503-0574-7</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6092550</t>
+          <t>https://doi.org/10.1145/1985441.1985453</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SeClone - A Hybrid Approach to Internet-Scale Real-Time Code Clone Search</t>
+          <t>Measuring the Efficacy of Code Clone Information in a Bug Localization Task: An Empirical Study</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I. Keivanloo; J. Rilling; P. Charland</t>
+          <t>D. Chatterji; J. C. Carver; B. Massengil; J. Oslin; N. A. Kraft</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1155,71 +1151,71 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2011.29</t>
+          <t>10.1109/ESEM.2011.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>978-0-7695-4398-7</t>
+          <t>978-1-4577-2203-5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1092-8138</t>
+          <t>1949-3789</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5970191</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6092550</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>An Experience Report on Analyzing Industrial Software Systems Using Code Clone Detection Techniques</t>
+          <t>SeClone - A Hybrid Approach to Internet-Scale Real-Time Code Clone Search</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N. Yoshida; Y. Higo; S. Kusumoto; K. Inoue</t>
+          <t>I. Keivanloo; J. Rilling; P. Charland</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.1109/APSEC.2012.98</t>
+          <t>10.1109/ICPC.2011.29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>978-1-4673-4930-7</t>
+          <t>978-0-7695-4398-7</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1530-1362</t>
+          <t>1092-8138</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6462669</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5970191</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Reusing and converting code clones to aspects - An algorithmic approach</t>
+          <t>An Experience Report on Analyzing Industrial Software Systems Using Code Clone Detection Techniques</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S. A. Ajila; A. S. Gakhar; C. H. Lung; M. Zaman</t>
+          <t>N. Yoshida; Y. Higo; S. Kusumoto; K. Inoue</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1229,30 +1225,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.1109/IRI.2012.6302984</t>
+          <t>10.1109/APSEC.2012.98</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>978-1-4673-2284-3</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>978-1-4673-4930-7</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1530-1362</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6302984</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6462669</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Reverse Engineering Variability in Source Code Using Clone Detection: A Case Study for Linux Variants of Consumer Electronic Devices</t>
+          <t>Reusing and converting code clones to aspects - An algorithmic approach</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A. Hemel; R. Koschke</t>
+          <t>S. A. Ajila; A. S. Gakhar; C. H. Lung; M. Zaman</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1262,34 +1262,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.1109/WCRE.2012.45</t>
+          <t>10.1109/IRI.2012.6302984</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>978-0-7695-4891-3</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2375-5369</t>
-        </is>
-      </c>
+          <t>978-1-4673-2284-3</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6385131</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6302984</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>What clone coverage can tell</t>
+          <t>Reverse Engineering Variability in Source Code Using Clone Detection: A Case Study for Linux Variants of Consumer Electronic Devices</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>N. G√∂de; B. Hummel; E. Juergens</t>
+          <t>A. Hemel; R. Koschke</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1299,55 +1295,67 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2012.6227880</t>
+          <t>10.1109/WCRE.2012.45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>978-1-4673-1795-5</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>978-0-7695-4891-3</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2375-5369</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6227880</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6385131</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Prioritizing code clone detection results for clone management</t>
+          <t>What clone coverage can tell</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Venkatasubramanyam, Radhika D.; Gupta, Shrinath; Singh, Himanshu Kumar</t>
+          <t>N. G√∂de; B. Hummel; E. Juergens</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.1109/IWSC.2012.6227880</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>978-1-4673-6445-4</t>
+          <t>978-1-4673-1795-5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6227880</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Research on the Model of Legacy Software Reuse Based on Code Clone Detection</t>
+          <t>Prioritizing code clone detection results for clone management</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>M. Fanqi; K. Yunqi</t>
+          <t>Venkatasubramanyam, Radhika D.; Gupta, Shrinath; Singh, Himanshu Kumar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1355,65 +1363,57 @@
           <t>2013</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>10.1109/CICN.2013.107</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>978-0-7695-5069-5</t>
+          <t>978-1-4673-6445-4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6658042</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>An approach to rank code clones for efficient clone management</t>
+          <t>Research on the Model of Legacy Software Reuse Based on Code Clone Detection</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R. Garg; R. Tekchandani</t>
+          <t>M. Fanqi; K. Yunqi</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.1109/ICAECC.2014.7002385</t>
+          <t>10.1109/CICN.2013.107</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>978-1-4799-5496-4</t>
+          <t>978-0-7695-5069-5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7002385</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6658042</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CBR clone based software flaw detection issues</t>
+          <t>An approach to rank code clones for efficient clone management</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Honarvar, Ali Reza; Sami, Ashkan</t>
+          <t>R. Garg; R. Tekchandani</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1423,30 +1423,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10.1145/2659651.2659745</t>
+          <t>10.1109/ICAECC.2014.7002385</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>978-1-4503-3033-6</t>
+          <t>978-1-4799-5496-4</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2659651.2659745</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7002385</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Recommending Clones for Refactoring Using Design, Context, and History</t>
+          <t>CBR clone based software flaw detection issues</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>W. Wang; M. W. Godfrey</t>
+          <t>Honarvar, Ali Reza; Sami, Ashkan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1456,34 +1456,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10.1109/ICSME.2014.55</t>
+          <t>10.1145/2659651.2659745</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>978-1-4799-6146-7</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1063-6773</t>
-        </is>
-      </c>
+          <t>978-1-4503-3033-6</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6976099</t>
+          <t>https://doi.org/10.1145/2659651.2659745</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Supporting clone analysis with tag cloud visualization</t>
+          <t>Recommending Clones for Refactoring Using Design, Context, and History</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sano, Manamu; Choi, Eunjong; Yoshida, Norihiro; Yamanaka, Yuki; Inoue, Katsuro</t>
+          <t>W. Wang; M. W. Godfrey</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1493,67 +1489,67 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10.1145/2666581.2666586</t>
+          <t>10.1109/ICSME.2014.55</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>978-1-4503-3226-2</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>978-1-4799-6146-7</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1063-6773</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2666581.2666586</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6976099</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CloCom: Mining existing source code for automatic comment generation</t>
+          <t>Supporting clone analysis with tag cloud visualization</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. Wong; Taiyue Liu; L. Tan</t>
+          <t>Sano, Manamu; Choi, Eunjong; Yoshida, Norihiro; Yamanaka, Yuki; Inoue, Katsuro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10.1109/SANER.2015.7081848</t>
+          <t>10.1145/2666581.2666586</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>978-1-4799-8469-5</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1534-5351</t>
-        </is>
-      </c>
+          <t>978-1-4503-3226-2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7081848</t>
+          <t>https://doi.org/10.1145/2666581.2666586</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>On the comprehension of code clone visualizations: A controlled study using eye tracking</t>
+          <t>CloCom: Mining existing source code for automatic comment generation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>M. S. Uddin; V. Gaur; C. Gutwin; C. K. Roy</t>
+          <t>E. Wong; Taiyue Liu; L. Tan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1563,30 +1559,34 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.1109/SCAM.2015.7335412</t>
+          <t>10.1109/SANER.2015.7081848</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>978-1-4673-7529-0</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>978-1-4799-8469-5</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7335412</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7081848</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Source code reuse evaluation by using real/potential copy and paste</t>
+          <t>On the comprehension of code clone visualizations: A controlled study using eye tracking</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T. Ohta; H. Murakami; H. Igaki; Y. Higo; S. Kusumoto</t>
+          <t>M. S. Uddin; V. Gaur; C. Gutwin; C. K. Roy</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1596,129 +1596,129 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2015.7069887</t>
+          <t>10.1109/SCAM.2015.7335412</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>978-1-4673-6914-5</t>
+          <t>978-1-4673-7529-0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7069887</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7335412</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A method of program refactoring based on code clone detection and impact analysis</t>
+          <t>Source code reuse evaluation by using real/potential copy and paste</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M. Takahashi; R. Nanba; Y. Anang; T. Uchiyama; Y. Watanabe</t>
+          <t>T. Ohta; H. Murakami; H. Igaki; Y. Higo; S. Kusumoto</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10.1109/SICE.2016.7749180</t>
+          <t>10.1109/IWSC.2015.7069887</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>978-4-907764-50-0</t>
+          <t>978-1-4673-6914-5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7749180</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7069887</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>An Exploratory Study on Interface Similarities in Code Clones</t>
+          <t>A method of program refactoring based on code clone detection and impact analysis</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>M. R. H. Misu; A. Satter; K. Sakib</t>
+          <t>M. Takahashi; R. Nanba; Y. Anang; T. Uchiyama; Y. Watanabe</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10.1109/APSECW.2017.24</t>
+          <t>10.1109/SICE.2016.7749180</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>978-1-5386-2649-8</t>
+          <t>978-4-907764-50-0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8312535</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7749180</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>An Analysis of Complex Industrial Test Code Using Clone Analysis</t>
+          <t>An Exploratory Study on Interface Similarities in Code Clones</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>W. Hasanain; Y. Labiche; S. Eldh</t>
+          <t>M. R. H. Misu; A. Satter; K. Sakib</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.1109/QRS.2018.00061</t>
+          <t>10.1109/APSECW.2017.24</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>978-1-5386-7757-5</t>
+          <t>978-1-5386-2649-8</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8424999</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8312535</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Clone-hunter: Accelerated bound checks elimination via binary code clone detection</t>
+          <t>An Analysis of Complex Industrial Test Code Using Clone Analysis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Xue, Hongfa; Venkataramani, Guru; Lan, Tian</t>
+          <t>W. Hasanain; Y. Labiche; S. Eldh</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1728,63 +1728,63 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.1145/3211346.3211347</t>
+          <t>10.1109/QRS.2018.00061</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>978-1-4503-5834-7</t>
+          <t>978-1-5386-7757-5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3211346.3211347</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8424999</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CloneCognition: Machine learning based code clone validation tool</t>
+          <t>Clone-hunter: Accelerated bound checks elimination via binary code clone detection</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mostaeen, Golam; Svajlenko, Jeffrey; Roy, Banani; Roy, Chanchal K.; Schneider, Kevin A.</t>
+          <t>Xue, Hongfa; Venkataramani, Guru; Lan, Tian</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10.1145/3338906.3341182</t>
+          <t>10.1145/3211346.3211347</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>978-1-4503-5572-8</t>
+          <t>978-1-4503-5834-7</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3338906.3341182</t>
+          <t>https://doi.org/10.1145/3211346.3211347</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CloneTM: A Code Clone Detection Tool Based on Latent Dirichlet Allocation</t>
+          <t>CloneCognition: Machine learning based code clone validation tool</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S. Reddivari; M. S. Khan</t>
+          <t>Mostaeen, Golam; Svajlenko, Jeffrey; Roy, Banani; Roy, Chanchal K.; Schneider, Kevin A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1794,34 +1794,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.1109/COMPSAC.2019.00146</t>
+          <t>10.1145/3338906.3341182</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>978-1-7281-2607-4</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0730-3157</t>
-        </is>
-      </c>
+          <t>978-1-4503-5572-8</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8754305</t>
+          <t>https://doi.org/10.1145/3338906.3341182</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Deep Review Sharing</t>
+          <t>CloneTM: A Code Clone Detection Tool Based on Latent Dirichlet Allocation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C. Guo; D. Huang; N. Dong; Q. Ye; J. Xu; Y. Fan; H. Yang; Y. Xu</t>
+          <t>S. Reddivari; M. S. Khan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1831,34 +1827,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10.1109/SANER.2019.8668037</t>
+          <t>10.1109/COMPSAC.2019.00146</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>978-1-7281-0591-8</t>
+          <t>978-1-7281-2607-4</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1534-5351</t>
+          <t>0730-3157</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8668037</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8754305</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>How Compact Will My System Be? A Fully-Automated Way to Calculate LoC Reduced by Clone Refactoring</t>
+          <t>Deep Review Sharing</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T. Nakagawa; Y. Higo; J. Matsumoto; S. Kusumoto</t>
+          <t>C. Guo; D. Huang; N. Dong; Q. Ye; J. Xu; Y. Fan; H. Yang; Y. Xu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1868,34 +1864,34 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10.1109/APSEC48747.2019.00046</t>
+          <t>10.1109/SANER.2019.8668037</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>978-1-7281-4648-5</t>
+          <t>978-1-7281-0591-8</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2640-0715</t>
+          <t>1534-5351</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8945738</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8668037</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MoCoP: Towards a model clone portal</t>
+          <t>How Compact Will My System Be? A Fully-Automated Way to Calculate LoC Reduced by Clone Refactoring</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Babur, Önder; Stephan, Matthew</t>
+          <t>T. Nakagawa; Y. Higo; J. Matsumoto; S. Kusumoto</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1905,26 +1901,34 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.1109/MiSE.2019.00019</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+          <t>10.1109/APSEC48747.2019.00046</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>978-1-7281-4648-5</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2640-0715</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/MiSE.2019.00019</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8945738</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Proactive Clone Recommendation System for Extract Method Refactoring</t>
+          <t>MoCoP: Towards a model clone portal</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>N. Yoshida; S. Numata; E. Choiz; K. Inoue</t>
+          <t>Babur, Önder; Stephan, Matthew</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1934,30 +1938,26 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10.1109/IWoR.2019.00020</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>978-1-7281-2270-0</t>
-        </is>
-      </c>
+          <t>10.1109/MiSE.2019.00019</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8844422</t>
+          <t>https://doi.org/10.1109/MiSE.2019.00019</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tracking Method-Level Clones and a Case Study</t>
+          <t>Proactive Clone Recommendation System for Extract Method Refactoring</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>K. Uemura; A. Mori; E. Choi; H. Iida</t>
+          <t>N. Yoshida; S. Numata; E. Choiz; K. Inoue</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1967,67 +1967,67 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2019.8665851</t>
+          <t>10.1109/IWoR.2019.00020</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>978-1-7281-1805-5</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2572-6587</t>
-        </is>
-      </c>
+          <t>978-1-7281-2270-0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8665851</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8844422</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>An Automatic Advisor for Refactoring Software Clones Based on Machine Learning</t>
+          <t>Tracking Method-Level Clones and a Case Study</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A. M. Sheneamer</t>
+          <t>K. Uemura; A. Mori; E. Choi; H. Iida</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2020.3006178</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>10.1109/IWSC.2019.8665851</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>978-1-7281-1805-5</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2169-3536</t>
+          <t>2572-6587</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9130671</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8665851</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Associating Code Clones with Association Rules for Change Impact Analysis</t>
+          <t>An Automatic Advisor for Refactoring Software Clones Based on Machine Learning</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M. Mondal; B. Roy; C. K. Roy; K. A. Schneider</t>
+          <t>A. M. Sheneamer</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2037,34 +2037,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.1109/SANER48275.2020.9054846</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>978-1-7281-5143-4</t>
-        </is>
-      </c>
+          <t>10.1109/ACCESS.2020.3006178</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1534-5351</t>
+          <t>2169-3536</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054846</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9130671</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Blanker: A Refactor-Oriented Cloned Source Code Normalizer</t>
+          <t>Associating Code Clones with Association Rules for Change Impact Analysis</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D. Pizzolotto; K. Inoue</t>
+          <t>M. Mondal; B. Roy; C. K. Roy; K. A. Schneider</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2074,34 +2070,34 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10.1109/IWSC50091.2020.9047634</t>
+          <t>10.1109/SANER48275.2020.9054846</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>978-1-7281-6269-0</t>
+          <t>978-1-7281-5143-4</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2572-6587</t>
+          <t>1534-5351</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047634</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054846</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Clone Detection on Large Scala Codebases</t>
+          <t>Blanker: A Refactor-Oriented Cloned Source Code Normalizer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>W. Rahman; Y. Xu; F. Pu; J. Xuan; X. Jia; M. Basios; L. Kanthan; L. Li; F. Wu; B. Xu</t>
+          <t>D. Pizzolotto; K. Inoue</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2111,7 +2107,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10.1109/IWSC50091.2020.9047640</t>
+          <t>10.1109/IWSC50091.2020.9047634</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2126,19 +2122,19 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047640</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047634</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Clone Swarm: A Cloud Based Code-Clone Analysis Tool</t>
+          <t>Clone Detection on Large Scala Codebases</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>V. Bandi; C. K. Roy; C. Gutwin</t>
+          <t>W. Rahman; Y. Xu; F. Pu; J. Xuan; X. Jia; M. Basios; L. Kanthan; L. Li; F. Wu; B. Xu</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2148,7 +2144,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10.1109/IWSC50091.2020.9047642</t>
+          <t>10.1109/IWSC50091.2020.9047640</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2163,19 +2159,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047642</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047640</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Comparison and Visualization of Code Clone Detection Results</t>
+          <t>Clone Swarm: A Cloud Based Code-Clone Analysis Tool</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>K. Matsushima; K. Inoue</t>
+          <t>V. Bandi; C. K. Roy; C. Gutwin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2185,7 +2181,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10.1109/IWSC50091.2020.9047633</t>
+          <t>10.1109/IWSC50091.2020.9047642</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2200,19 +2196,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047633</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047642</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GENES ISP: code analysis platform</t>
+          <t>Comparison and Visualization of Code Clone Detection Results</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S. Sargsyan; V. Vardanyan; H. Aslanyan; M. Harutunyan; M. Mehrabyan; K. Sargsyan; H. Hovahannisyan; H. Movsisyan; J. Hakobyan; S. Kurmangaleev</t>
+          <t>K. Matsushima; K. Inoue</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2222,30 +2218,34 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10.1109/ISPRAS51486.2020.00012</t>
+          <t>10.1109/IWSC50091.2020.9047633</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>978-1-6654-1291-9</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>978-1-7281-6269-0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2572-6587</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9394122</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047633</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Logging statements' prediction based on source code clones</t>
+          <t>GENES ISP: code analysis platform</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Gholamian, Sina; Ward, Paul A. S.</t>
+          <t>S. Sargsyan; V. Vardanyan; H. Aslanyan; M. Harutunyan; M. Mehrabyan; K. Sargsyan; H. Hovahannisyan; H. Movsisyan; J. Hakobyan; S. Kurmangaleev</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2255,30 +2255,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10.1145/3341105.3373845</t>
+          <t>10.1109/ISPRAS51486.2020.00012</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>978-1-4503-6866-7</t>
+          <t>978-1-6654-1291-9</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3341105.3373845</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9394122</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mining of DSLs and generator templates from reference applications</t>
+          <t>Logging statements' prediction based on source code clones</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rost, Wolf</t>
+          <t>Gholamian, Sina; Ward, Paul A. S.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2288,30 +2288,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10.1145/3417990.3419492</t>
+          <t>10.1145/3341105.3373845</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>978-1-4503-8135-2</t>
+          <t>978-1-4503-6866-7</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3417990.3419492</t>
+          <t>https://doi.org/10.1145/3341105.3373845</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PHANTA: Diversified test code quality measurement for modern software development</t>
+          <t>Mining of DSLs and generator templates from reference applications</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tokumoto, Susumu; Takayama, Kuniharu</t>
+          <t>Rost, Wolf</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2321,30 +2321,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.1109/ASE.2019.00138</t>
+          <t>10.1145/3417990.3419492</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>978-1-72812-508-4</t>
+          <t>978-1-4503-8135-2</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ASE.2019.00138</t>
+          <t>https://doi.org/10.1145/3417990.3419492</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Review Sharing via Deep Semi-Supervised Code Clone Detection</t>
+          <t>PHANTA: Diversified test code quality measurement for modern software development</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C. Guo; H. Yang; D. Huang; J. Zhang; N. Dong; J. Xu; J. Zhu</t>
+          <t>Tokumoto, Susumu; Takayama, Kuniharu</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2354,63 +2354,63 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2020.2966532</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2169-3536</t>
-        </is>
-      </c>
+          <t>10.1109/ASE.2019.00138</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>978-1-72812-508-4</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8959206</t>
+          <t>https://doi.org/10.1109/ASE.2019.00138</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Finding software license violations through binary code clone detection - a retrospective</t>
+          <t>Review Sharing via Deep Semi-Supervised Code Clone Detection</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hemel, Armijn; Kalleberg, Karl Trygve; Vermaas, Rob; Dolstra, Eelco</t>
+          <t>C. Guo; H. Yang; D. Huang; J. Zhang; N. Dong; J. Xu; J. Zhu</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.1145/3468744.3468752</t>
+          <t>10.1109/ACCESS.2020.2966532</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0163-5948</t>
+          <t>2169-3536</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3468744.3468752</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8959206</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mapping Similarity Detectors of Code Clone to Academic Integrity in Programming</t>
+          <t>Finding software license violations through binary code clone detection - a retrospective</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M. A. Pangestu; O. Karnalim; Simon</t>
+          <t>Hemel, Armijn; Kalleberg, Karl Trygve; Vermaas, Rob; Dolstra, Eelco</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2420,30 +2420,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10.1109/EDUNINE51952.2021.9429164</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>978-1-6654-0302-3</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>10.1145/3468744.3468752</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0163-5948</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9429164</t>
+          <t>https://doi.org/10.1145/3468744.3468752</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Research on Code Plagiarism Detection Based on Code Clone Detection Technologies</t>
+          <t>Mapping Similarity Detectors of Code Clone to Academic Integrity in Programming</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>L. Muxin</t>
+          <t>M. A. Pangestu; O. Karnalim; Simon</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2453,30 +2453,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.1109/ICBDIE52740.2021.00068</t>
+          <t>10.1109/EDUNINE51952.2021.9429164</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>978-1-6654-3870-4</t>
+          <t>978-1-6654-0302-3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9457455</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9429164</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Toxic Code Snippets on Stack Overflow</t>
+          <t>Research on Code Plagiarism Detection Based on Code Clone Detection Technologies</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C. Ragkhitwetsagul; J. Krinke; M. Paixao; G. Bianco; R. Oliveto</t>
+          <t>L. Muxin</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2486,67 +2486,63 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10.1109/TSE.2019.2900307</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1939-3520</t>
-        </is>
-      </c>
+          <t>10.1109/ICBDIE52740.2021.00068</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>978-1-6654-3870-4</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8643998</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9457455</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A Feasibility Study of Using Code Clone Detection for Secure Programming Education</t>
+          <t>Toxic Code Snippets on Stack Overflow</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M. Menard; T. Nelson; M. Shahi; H. Morton; A. DeTavernier; H. Siy; R. Zhao; M. Song</t>
+          <t>C. Ragkhitwetsagul; J. Krinke; M. Paixao; G. Bianco; R. Oliveto</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.1109/COMPSAC54236.2022.00238</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>978-1-6654-8810-5</t>
-        </is>
-      </c>
+          <t>10.1109/TSE.2019.2900307</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0730-3157</t>
+          <t>1939-3520</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9842461</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8643998</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Leveraging code clones and natural language processing for log statement prediction</t>
+          <t>A Feasibility Study of Using Code Clone Detection for Secure Programming Education</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gholamian, Sina</t>
+          <t>M. Menard; T. Nelson; M. Shahi; H. Morton; A. DeTavernier; H. Siy; R. Zhao; M. Song</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2556,30 +2552,34 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10.1109/ASE51524.2021.9678596</t>
+          <t>10.1109/COMPSAC54236.2022.00238</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>978-1-66540-337-5</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>978-1-6654-8810-5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0730-3157</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ASE51524.2021.9678596</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9842461</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Study and Comparison of Plagiarism Detection Model for Online Studies</t>
+          <t>Leveraging code clones and natural language processing for log statement prediction</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>M. Bhole; H. Rao; B. Patel; S. Bhagwat</t>
+          <t>Gholamian, Sina</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2589,30 +2589,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10.1109/ICAAIC53929.2022.9793101</t>
+          <t>10.1109/ASE51524.2021.9678596</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>978-1-6654-9710-7</t>
+          <t>978-1-66540-337-5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9793101</t>
+          <t>https://doi.org/10.1109/ASE51524.2021.9678596</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Towards developer support for merging forked test cases</t>
+          <t>Study and Comparison of Plagiarism Detection Model for Online Studies</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Schulze, Sandro; Krüger, Jacob; Wünsche, Johannes</t>
+          <t>M. Bhole; H. Rao; B. Patel; S. Bhagwat</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2622,63 +2622,63 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10.1145/3546932.3547002</t>
+          <t>10.1109/ICAAIC53929.2022.9793101</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>978-1-4503-9443-7</t>
+          <t>978-1-6654-9710-7</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3546932.3547002</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9793101</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Keeping pace with ever-increasing data: Towards continual learning of code intelligence models</t>
+          <t>Towards developer support for merging forked test cases</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gao, Shuzheng; Zhang, Hongyu; Gao, Cuiyun; Wang, Chaozheng</t>
+          <t>Schulze, Sandro; Krüger, Jacob; Wünsche, Johannes</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.1109/ICSE48619.2023.00015</t>
+          <t>10.1145/3546932.3547002</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>978-1-66545-701-9</t>
+          <t>978-1-4503-9443-7</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICSE48619.2023.00015</t>
+          <t>https://doi.org/10.1145/3546932.3547002</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Validating the redundancy assumption for HDL from code clone's perspective</t>
+          <t>Keeping pace with ever-increasing data: Towards continual learning of code intelligence models</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Xu, Jianjun; He, Jiayu; Zhang, Jingyan; Yang, Deheng; Wu, Jiang; Mao, Xiaoguang</t>
+          <t>Gao, Shuzheng; Zhang, Hongyu; Gao, Cuiyun; Wang, Chaozheng</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2688,16 +2688,49 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10.1145/3569052.3571872</t>
+          <t>10.1109/ICSE48619.2023.00015</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>978-1-4503-9978-4</t>
+          <t>978-1-66545-701-9</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ICSE48619.2023.00015</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Validating the redundancy assumption for HDL from code clone's perspective</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Xu, Jianjun; He, Jiayu; Zhang, Jingyan; Yang, Deheng; Wu, Jiang; Mao, Xiaoguang</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.1145/3569052.3571872</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>978-1-4503-9978-4</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>https://doi.org/10.1145/3569052.3571872</t>
         </is>
